--- a/DB/リレーションデータベース.xlsx
+++ b/DB/リレーションデータベース.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujiwara.shino_2\Documents\3\IW32\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$56</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="169">
   <si>
     <t>ユーザ(users)</t>
     <phoneticPr fontId="1"/>
@@ -194,10 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>magazin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>point</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1020,6 +1014,14 @@
   </si>
   <si>
     <t>evaluate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>magazine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seat_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1103,7 +1105,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1113,7 +1115,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1121,79 +1123,79 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,6 +1242,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,15 +1262,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2805,7 +2807,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2840,7 +2842,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3017,7 +3019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3027,38 +3029,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
-    <col min="9" max="9" width="17.6328125" customWidth="1"/>
-    <col min="12" max="12" width="18.90625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" customWidth="1"/>
     <col min="16" max="16" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:9" ht="17.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:9" ht="17.5" customHeight="1" thickBot="1">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="E2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="H2" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="16"/>
+      <c r="E2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="2:9" ht="17.5" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -3067,19 +3069,19 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:9" ht="17.5" customHeight="1" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3087,19 +3089,19 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:9" ht="17.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3107,13 +3109,13 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="17.5" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3121,13 +3123,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="17.5" customHeight="1" thickBot="1">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3135,13 +3137,13 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="17.5" customHeight="1" thickBot="1">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3149,17 +3151,17 @@
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="2:9" ht="17.5" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3167,19 +3169,19 @@
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="17.5" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3187,19 +3189,19 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:9" ht="17.5" customHeight="1" thickBot="1">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3207,19 +3209,19 @@
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:9" ht="17.5" customHeight="1">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="17.5" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3235,7 +3237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="17.5" customHeight="1" thickBot="1">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3243,97 +3245,97 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="17.5" customHeight="1" thickBot="1">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="H15" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="H15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="2:9" ht="17.5" customHeight="1" thickBot="1">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="17.5" customHeight="1">
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="17.5" customHeight="1">
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="17.5" customHeight="1" thickBot="1">
+      <c r="E19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="17.5" customHeight="1" thickBot="1">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="E20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:15" ht="17.5" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>1</v>
       </c>
@@ -3341,448 +3343,453 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="17.5" customHeight="1" thickBot="1">
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="17.5" customHeight="1" thickBot="1">
       <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="K23" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="2:15" ht="17.5" customHeight="1" thickBot="1">
+      <c r="H24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="K23" s="12" t="s">
+      <c r="I24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="17.5" customHeight="1" thickBot="1">
+      <c r="H25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="2:15" ht="17.5" customHeight="1" thickBot="1">
+      <c r="E26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="H26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="17.5" customHeight="1">
+      <c r="E27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="17.5" customHeight="1">
+      <c r="E28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="17.5" customHeight="1" thickBot="1">
+      <c r="E29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="17.5" customHeight="1" thickBot="1">
+      <c r="H30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="16"/>
+      <c r="N30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="17.5" customHeight="1" thickBot="1">
+      <c r="B31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="H31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="17.5" customHeight="1" thickBot="1">
+      <c r="B32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="17.5" customHeight="1" thickBot="1">
+      <c r="B33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="2:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="6" t="s">
+      <c r="E33" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="K33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="17.5" customHeight="1" thickBot="1">
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="17.5" customHeight="1" thickBot="1">
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="K35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="17.5" customHeight="1" thickBot="1">
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" s="6" t="s">
+      <c r="I36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="17.5" customHeight="1">
+      <c r="H37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="17.5" customHeight="1">
+      <c r="H38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="17.5" customHeight="1">
+      <c r="H39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="17.5" customHeight="1">
+      <c r="H40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="17.5" customHeight="1">
+      <c r="H41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="17.5" customHeight="1">
+      <c r="H42" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="17.5" customHeight="1">
+      <c r="H43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="17.5" customHeight="1">
+      <c r="H44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="17.5" customHeight="1">
+      <c r="H45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="17.5" customHeight="1" thickBot="1">
+      <c r="H46" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" ht="17.5" customHeight="1" thickBot="1"/>
+    <row r="50" spans="7:9" ht="17.5" customHeight="1" thickBot="1">
+      <c r="H50" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="7:9" ht="17.5" customHeight="1">
+      <c r="H51" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="2:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="H26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="N30" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="H31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="K33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" s="13"/>
-      <c r="K35" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H37" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H42" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="1" t="s">
+      <c r="I51" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" ht="17.5" customHeight="1">
+      <c r="H52" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" ht="17.5" customHeight="1">
+      <c r="H53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" ht="17.5" customHeight="1">
+      <c r="H54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" ht="17.5" customHeight="1" thickBot="1">
+      <c r="H55" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="7:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="7:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H50" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="7:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="7:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="7:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="7:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I54" s="2" t="s">
+      <c r="I55" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="7:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="7:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="7:9" ht="17.5" customHeight="1">
       <c r="G64" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K23:L23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>